--- a/benfords_law/Benford Law - COVID-19 WHO Data.xlsx
+++ b/benfords_law/Benford Law - COVID-19 WHO Data.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/washingtonalto/OneDrive/Documents/Personal/My Personal Projects/Excel/Benford Law/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fcbf0fe29d15ca/Documents/Personal/My Personal Projects/GitHub/exceldashboards/benfords_law/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="102_{C5646DCF-B194-B94C-8FB0-AECAB034212C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{878A7710-8B08-C24B-B73D-3A18FF213144}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="102_{C5646DCF-B194-B94C-8FB0-AECAB034212C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0103F994-40C6-3F47-97B1-EE84B978E0BF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{28713F73-9A2D-5748-B52C-B855DA83CA93}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14040" xr2:uid="{28713F73-9A2D-5748-B52C-B855DA83CA93}"/>
   </bookViews>
   <sheets>
     <sheet name="Benford Law" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -779,7 +790,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -959,7 +970,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -985,7 +996,7 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -997,41 +1008,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1053,6 +1037,30 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1085,7 +1093,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1182,31 +1190,31 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.29629629629629628</c:v>
+                  <c:v>0.32124352331606215</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18518518518518517</c:v>
+                  <c:v>0.13989637305699482</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18055555555555555</c:v>
+                  <c:v>0.11398963730569948</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0185185185185182E-2</c:v>
+                  <c:v>6.2176165803108807E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.10880829015544041</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1666666666666664E-2</c:v>
+                  <c:v>0.11917098445595854</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1666666666666664E-2</c:v>
+                  <c:v>3.6269430051813469E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.9444444444444448E-2</c:v>
+                  <c:v>5.6994818652849742E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1666666666666664E-2</c:v>
+                  <c:v>4.145077720207254E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2325,7 +2333,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C389995-13CF-7E4B-BD76-EDE304FA0673}" name="Data" displayName="Data" ref="B9:E225" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="B9:E225" xr:uid="{D200FFC1-B49D-B54A-8B64-B5E6A0BDDB0A}"/>
-  <sortState ref="B10:E11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B10:E11">
     <sortCondition descending="1" ref="C10"/>
   </sortState>
   <tableColumns count="4">
@@ -2341,9 +2349,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2381,7 +2389,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2487,7 +2495,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2629,7 +2637,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2639,9 +2647,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD97389-766B-2349-8297-DB628D0B6E79}">
   <dimension ref="B3:M225"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.83203125" customWidth="1"/>
     <col min="2" max="2" width="47.33203125" bestFit="1" customWidth="1"/>
@@ -2654,38 +2664,38 @@
     <col min="15" max="15" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="21">
-      <c r="B3" s="24" t="s">
+    <row r="3" spans="2:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="B3" s="23" t="s">
         <v>240</v>
       </c>
       <c r="H3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="21" t="s">
         <v>216</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>233</v>
       </c>
       <c r="I5" s="16">
         <f>_xlfn.CHISQ.TEST(K8:K16,L8:L16)</f>
-        <v>0.99999996597668406</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13">
+        <v>0.99999987906750021</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="21" t="s">
         <v>234</v>
       </c>
       <c r="C6" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="22" t="s">
         <v>217</v>
       </c>
@@ -2712,7 +2722,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="19"/>
       <c r="H8" s="5" t="s">
         <v>218</v>
@@ -2722,11 +2732,11 @@
       </c>
       <c r="J8" s="5">
         <f>COUNTIFS(Data[Leading Digit],$I8)</f>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K8" s="6">
         <f>IFERROR(J8/$J$17,"")</f>
-        <v>0.29629629629629628</v>
+        <v>0.32124352331606215</v>
       </c>
       <c r="L8" s="6">
         <f>LOG10(1/$I8+1)</f>
@@ -2734,10 +2744,10 @@
       </c>
       <c r="M8" s="7">
         <f>K8-L8</f>
-        <v>-4.7336993676849182E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
+        <v>2.0213527652080954E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
@@ -2758,11 +2768,11 @@
       </c>
       <c r="J9" s="5">
         <f>COUNTIFS(Data[Leading Digit],$I9)</f>
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" ref="K9:K16" si="0">IFERROR(J9/$J$17,"")</f>
-        <v>0.18518518518518517</v>
+        <v>0.13989637305699482</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" ref="L9:L16" si="1">LOG10(1/$I9+1)</f>
@@ -2770,10 +2780,10 @@
       </c>
       <c r="M9" s="7">
         <f t="shared" ref="M9:M16" si="2">K9-L9</f>
-        <v>9.0939261295039375E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13">
+        <v>-3.6194885998686421E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>3</v>
       </c>
@@ -2785,7 +2795,7 @@
       </c>
       <c r="E10" s="4" t="str">
         <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>220</v>
@@ -2795,11 +2805,11 @@
       </c>
       <c r="J10" s="5">
         <f>COUNTIFS(Data[Leading Digit],$I10)</f>
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" si="0"/>
-        <v>0.18055555555555555</v>
+        <v>0.11398963730569948</v>
       </c>
       <c r="L10" s="6">
         <f t="shared" si="1"/>
@@ -2807,10 +2817,10 @@
       </c>
       <c r="M10" s="7">
         <f t="shared" si="2"/>
-        <v>5.561681894725562E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13">
+        <v>-1.0949099302600449E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -2822,7 +2832,7 @@
       </c>
       <c r="E11" s="4" t="str">
         <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>221</v>
@@ -2832,11 +2842,11 @@
       </c>
       <c r="J11" s="5">
         <f>COUNTIFS(Data[Leading Digit],$I11)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K11" s="6">
         <f t="shared" si="0"/>
-        <v>6.0185185185185182E-2</v>
+        <v>6.2176165803108807E-2</v>
       </c>
       <c r="L11" s="6">
         <f t="shared" si="1"/>
@@ -2844,10 +2854,10 @@
       </c>
       <c r="M11" s="7">
         <f t="shared" si="2"/>
-        <v>-3.6724827822871238E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13">
+        <v>-3.4733847204947613E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>5</v>
       </c>
@@ -2857,9 +2867,9 @@
       <c r="D12" s="1">
         <v>55794</v>
       </c>
-      <c r="E12" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
+      <c r="E12" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>5</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>222</v>
@@ -2869,11 +2879,11 @@
       </c>
       <c r="J12" s="5">
         <f>COUNTIFS(Data[Leading Digit],$I12)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.10880829015544041</v>
       </c>
       <c r="L12" s="6">
         <f t="shared" si="1"/>
@@ -2881,10 +2891,10 @@
       </c>
       <c r="M12" s="7">
         <f t="shared" si="2"/>
-        <v>4.1520872857085112E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13">
+        <v>2.9627044107815595E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>6</v>
       </c>
@@ -2894,9 +2904,9 @@
       <c r="D13" s="1">
         <v>16310</v>
       </c>
-      <c r="E13" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>9</v>
+      <c r="E13" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>223</v>
@@ -2906,11 +2916,11 @@
       </c>
       <c r="J13" s="5">
         <f>COUNTIFS(Data[Leading Digit],$I13)</f>
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="K13" s="6">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.11917098445595854</v>
       </c>
       <c r="L13" s="6">
         <f t="shared" si="1"/>
@@ -2918,10 +2928,10 @@
       </c>
       <c r="M13" s="7">
         <f t="shared" si="2"/>
-        <v>-2.5280122963946557E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13">
+        <v>5.2224194825345321E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -2931,9 +2941,9 @@
       <c r="D14" s="1">
         <v>12843</v>
       </c>
-      <c r="E14" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>6</v>
+      <c r="E14" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>224</v>
@@ -2943,11 +2953,11 @@
       </c>
       <c r="J14" s="5">
         <f>COUNTIFS(Data[Leading Digit],$I14)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K14" s="6">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>3.6269430051813469E-2</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" si="1"/>
@@ -2955,10 +2965,10 @@
       </c>
       <c r="M14" s="7">
         <f t="shared" si="2"/>
-        <v>-1.6325280311020068E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13">
+        <v>-2.1722516925873264E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>9</v>
       </c>
@@ -2968,9 +2978,9 @@
       <c r="D15" s="1">
         <v>27034</v>
       </c>
-      <c r="E15" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>5</v>
+      <c r="E15" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>2</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>225</v>
@@ -2980,11 +2990,11 @@
       </c>
       <c r="J15" s="5">
         <f>COUNTIFS(Data[Leading Digit],$I15)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K15" s="6">
         <f t="shared" si="0"/>
-        <v>6.9444444444444448E-2</v>
+        <v>5.6994818652849742E-2</v>
       </c>
       <c r="L15" s="6">
         <f t="shared" si="1"/>
@@ -2992,10 +3002,10 @@
       </c>
       <c r="M15" s="7">
         <f t="shared" si="2"/>
-        <v>1.8291921997063157E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="17" thickBot="1">
+        <v>5.8422962054684516E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>8</v>
       </c>
@@ -3005,7 +3015,7 @@
       <c r="D16" s="1">
         <v>59106</v>
       </c>
-      <c r="E16" s="23" t="str">
+      <c r="E16" s="4" t="str">
         <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
         <v>5</v>
       </c>
@@ -3017,11 +3027,11 @@
       </c>
       <c r="J16" s="8">
         <f>COUNTIFS(Data[Leading Digit],$I16)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>4.145077720207254E-2</v>
       </c>
       <c r="L16" s="9">
         <f t="shared" si="1"/>
@@ -3029,10 +3039,10 @@
       </c>
       <c r="M16" s="10">
         <f t="shared" si="2"/>
-        <v>-4.0908238940084787E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="18" thickTop="1" thickBot="1">
+        <v>-4.3067133586026027E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>11</v>
       </c>
@@ -3042,9 +3052,9 @@
       <c r="D17" s="1">
         <v>16183</v>
       </c>
-      <c r="E17" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>5</v>
+      <c r="E17" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>232</v>
@@ -3052,11 +3062,11 @@
       <c r="I17" s="11"/>
       <c r="J17" s="11">
         <f>SUM(J8:J16)</f>
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="K17" s="12">
         <f>SUM(K8:K16)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="L17" s="12">
         <f>SUM(L8:L16)</f>
@@ -3064,10 +3074,10 @@
       </c>
       <c r="M17" s="13">
         <f>SUM(M8:M16)</f>
-        <v>-3.4694469519536142E-17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="17" thickTop="1">
+        <v>-2.7755575615628914E-17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -3077,12 +3087,12 @@
       <c r="D18" s="1">
         <v>10723</v>
       </c>
-      <c r="E18" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13">
+      <c r="E18" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>13</v>
       </c>
@@ -3092,12 +3102,12 @@
       <c r="D19" s="1">
         <v>28838</v>
       </c>
-      <c r="E19" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13">
+      <c r="E19" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>12</v>
       </c>
@@ -3107,12 +3117,12 @@
       <c r="D20" s="1">
         <v>20376</v>
       </c>
-      <c r="E20" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13">
+      <c r="E20" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>14</v>
       </c>
@@ -3122,12 +3132,12 @@
       <c r="D21" s="1">
         <v>41405</v>
       </c>
-      <c r="E21" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13">
+      <c r="E21" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -3137,12 +3147,12 @@
       <c r="D22" s="1">
         <v>6567</v>
       </c>
-      <c r="E22" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13">
+      <c r="E22" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>15</v>
       </c>
@@ -3152,12 +3162,12 @@
       <c r="D23" s="1">
         <v>3580</v>
       </c>
-      <c r="E23" s="23" t="str">
+      <c r="E23" s="4" t="str">
         <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>16</v>
       </c>
@@ -3167,12 +3177,12 @@
       <c r="D24" s="1">
         <v>6229</v>
       </c>
-      <c r="E24" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13">
+      <c r="E24" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>17</v>
       </c>
@@ -3182,12 +3192,12 @@
       <c r="D25" s="1">
         <v>3861</v>
       </c>
-      <c r="E25" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13">
+      <c r="E25" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>18</v>
       </c>
@@ -3197,12 +3207,12 @@
       <c r="D26" s="1">
         <v>35427</v>
       </c>
-      <c r="E26" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13">
+      <c r="E26" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>19</v>
       </c>
@@ -3212,12 +3222,12 @@
       <c r="D27" s="1">
         <v>6080</v>
       </c>
-      <c r="E27" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13">
+      <c r="E27" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>21</v>
       </c>
@@ -3227,12 +3237,12 @@
       <c r="D28" s="1">
         <v>9267</v>
       </c>
-      <c r="E28" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13">
+      <c r="E28" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -3242,12 +3252,12 @@
       <c r="D29" s="1">
         <v>30368</v>
       </c>
-      <c r="E29" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13">
+      <c r="E29" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>23</v>
       </c>
@@ -3257,12 +3267,12 @@
       <c r="D30" s="1">
         <v>6283</v>
       </c>
-      <c r="E30" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13">
+      <c r="E30" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>24</v>
       </c>
@@ -3272,12 +3282,12 @@
       <c r="D31" s="1">
         <v>2940</v>
       </c>
-      <c r="E31" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13">
+      <c r="E31" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>25</v>
       </c>
@@ -3287,12 +3297,12 @@
       <c r="D32" s="1">
         <v>6500</v>
       </c>
-      <c r="E32" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
+      <c r="E32" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>28</v>
       </c>
@@ -3302,12 +3312,12 @@
       <c r="D33" s="1">
         <v>1633</v>
       </c>
-      <c r="E33" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
+      <c r="E33" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>26</v>
       </c>
@@ -3317,12 +3327,12 @@
       <c r="D34" s="1">
         <v>9054</v>
       </c>
-      <c r="E34" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
+      <c r="E34" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>27</v>
       </c>
@@ -3332,12 +3342,12 @@
       <c r="D35" s="1">
         <v>193</v>
       </c>
-      <c r="E35" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
+      <c r="E35" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>30</v>
       </c>
@@ -3347,12 +3357,12 @@
       <c r="D36" s="1">
         <v>6248</v>
       </c>
-      <c r="E36" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
+      <c r="E36" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>32</v>
       </c>
@@ -3362,12 +3372,12 @@
       <c r="D37" s="1">
         <v>4305</v>
       </c>
-      <c r="E37" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5">
+      <c r="E37" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>36</v>
       </c>
@@ -3377,12 +3387,12 @@
       <c r="D38" s="1">
         <v>2244</v>
       </c>
-      <c r="E38" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5">
+      <c r="E38" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>35</v>
       </c>
@@ -3392,12 +3402,12 @@
       <c r="D39" s="1">
         <v>798</v>
       </c>
-      <c r="E39" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5">
+      <c r="E39" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>29</v>
       </c>
@@ -3407,12 +3417,12 @@
       <c r="D40" s="1">
         <v>5231</v>
       </c>
-      <c r="E40" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5">
+      <c r="E40" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>31</v>
       </c>
@@ -3422,12 +3432,12 @@
       <c r="D41" s="1">
         <v>4716</v>
       </c>
-      <c r="E41" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5">
+      <c r="E41" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>37</v>
       </c>
@@ -3437,12 +3447,12 @@
       <c r="D42" s="1">
         <v>1533</v>
       </c>
-      <c r="E42" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5">
+      <c r="E42" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>33</v>
       </c>
@@ -3452,12 +3462,12 @@
       <c r="D43" s="1">
         <v>5810</v>
       </c>
-      <c r="E43" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5">
+      <c r="E43" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>39</v>
       </c>
@@ -3467,12 +3477,12 @@
       <c r="D44" s="1">
         <v>1844</v>
       </c>
-      <c r="E44" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5">
+      <c r="E44" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>34</v>
       </c>
@@ -3482,12 +3492,12 @@
       <c r="D45" s="1">
         <v>609</v>
       </c>
-      <c r="E45" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5">
+      <c r="E45" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>38</v>
       </c>
@@ -3497,12 +3507,12 @@
       <c r="D46" s="1">
         <v>9985</v>
       </c>
-      <c r="E46" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5">
+      <c r="E46" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>40</v>
       </c>
@@ -3512,12 +3522,12 @@
       <c r="D47" s="1">
         <v>511</v>
       </c>
-      <c r="E47" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5">
+      <c r="E47" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>43</v>
       </c>
@@ -3527,12 +3537,12 @@
       <c r="D48" s="1">
         <v>3196</v>
       </c>
-      <c r="E48" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5">
+      <c r="E48" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>41</v>
       </c>
@@ -3542,12 +3552,12 @@
       <c r="D49" s="1">
         <v>632</v>
       </c>
-      <c r="E49" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5">
+      <c r="E49" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>45</v>
       </c>
@@ -3557,12 +3567,12 @@
       <c r="D50" s="1">
         <v>2532</v>
       </c>
-      <c r="E50" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5">
+      <c r="E50" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>42</v>
       </c>
@@ -3572,12 +3582,12 @@
       <c r="D51" s="1">
         <v>370</v>
       </c>
-      <c r="E51" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5">
+      <c r="E51" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>44</v>
       </c>
@@ -3587,12 +3597,12 @@
       <c r="D52" s="1">
         <v>6186</v>
       </c>
-      <c r="E52" s="23" t="str">
+      <c r="E52" s="4" t="str">
         <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>51</v>
       </c>
@@ -3602,12 +3612,12 @@
       <c r="D53" s="1">
         <v>1169</v>
       </c>
-      <c r="E53" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5">
+      <c r="E53" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>48</v>
       </c>
@@ -3617,12 +3627,12 @@
       <c r="D54" s="1">
         <v>1938</v>
       </c>
-      <c r="E54" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5">
+      <c r="E54" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>46</v>
       </c>
@@ -3632,12 +3642,12 @@
       <c r="D55" s="1">
         <v>27</v>
       </c>
-      <c r="E55" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5">
+      <c r="E55" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>47</v>
       </c>
@@ -3647,12 +3657,12 @@
       <c r="D56" s="1">
         <v>1792</v>
       </c>
-      <c r="E56" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5">
+      <c r="E56" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>49</v>
       </c>
@@ -3662,12 +3672,12 @@
       <c r="D57" s="1">
         <v>1619</v>
       </c>
-      <c r="E57" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5">
+      <c r="E57" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>50</v>
       </c>
@@ -3677,12 +3687,12 @@
       <c r="D58" s="1">
         <v>996</v>
       </c>
-      <c r="E58" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5">
+      <c r="E58" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>60</v>
       </c>
@@ -3692,12 +3702,12 @@
       <c r="D59" s="1">
         <v>817</v>
       </c>
-      <c r="E59" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5">
+      <c r="E59" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>52</v>
       </c>
@@ -3707,12 +3717,12 @@
       <c r="D60" s="1">
         <v>181</v>
       </c>
-      <c r="E60" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5">
+      <c r="E60" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>54</v>
       </c>
@@ -3722,12 +3732,12 @@
       <c r="D61" s="1">
         <v>261</v>
       </c>
-      <c r="E61" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5">
+      <c r="E61" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>55</v>
       </c>
@@ -3737,12 +3747,12 @@
       <c r="D62" s="1">
         <v>1055</v>
       </c>
-      <c r="E62" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5">
+      <c r="E62" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>53</v>
       </c>
@@ -3752,12 +3762,12 @@
       <c r="D63" s="1">
         <v>850</v>
       </c>
-      <c r="E63" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5">
+      <c r="E63" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>58</v>
       </c>
@@ -3767,12 +3777,12 @@
       <c r="D64" s="1">
         <v>1411</v>
       </c>
-      <c r="E64" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5">
+      <c r="E64" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>57</v>
       </c>
@@ -3782,12 +3792,12 @@
       <c r="D65" s="1">
         <v>1718</v>
       </c>
-      <c r="E65" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5">
+      <c r="E65" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>61</v>
       </c>
@@ -3797,12 +3807,12 @@
       <c r="D66" s="1">
         <v>262</v>
       </c>
-      <c r="E66" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5">
+      <c r="E66" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>56</v>
       </c>
@@ -3812,12 +3822,12 @@
       <c r="D67" s="1">
         <v>1385</v>
       </c>
-      <c r="E67" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5">
+      <c r="E67" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>69</v>
       </c>
@@ -3827,12 +3837,12 @@
       <c r="D68" s="1">
         <v>637</v>
       </c>
-      <c r="E68" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5">
+      <c r="E68" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>66</v>
       </c>
@@ -3842,12 +3852,12 @@
       <c r="D69" s="1">
         <v>311</v>
       </c>
-      <c r="E69" s="23" t="str">
+      <c r="E69" s="4" t="str">
         <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="2:5">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>59</v>
       </c>
@@ -3857,12 +3867,12 @@
       <c r="D70" s="1">
         <v>512</v>
       </c>
-      <c r="E70" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5">
+      <c r="E70" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>63</v>
       </c>
@@ -3872,12 +3882,12 @@
       <c r="D71" s="1">
         <v>929</v>
       </c>
-      <c r="E71" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5">
+      <c r="E71" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>65</v>
       </c>
@@ -3887,12 +3897,12 @@
       <c r="D72" s="1">
         <v>532</v>
       </c>
-      <c r="E72" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5">
+      <c r="E72" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>70</v>
       </c>
@@ -3902,12 +3912,12 @@
       <c r="D73" s="1">
         <v>333</v>
       </c>
-      <c r="E73" s="23" t="str">
+      <c r="E73" s="4" t="str">
         <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="2:5">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>67</v>
       </c>
@@ -3917,12 +3927,12 @@
       <c r="D74" s="1">
         <v>137</v>
       </c>
-      <c r="E74" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5">
+      <c r="E74" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>62</v>
       </c>
@@ -3932,12 +3942,12 @@
       <c r="D75" s="1">
         <v>692</v>
       </c>
-      <c r="E75" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5">
+      <c r="E75" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>71</v>
       </c>
@@ -3947,12 +3957,12 @@
       <c r="D76" s="1">
         <v>374</v>
       </c>
-      <c r="E76" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5">
+      <c r="E76" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>64</v>
       </c>
@@ -3962,12 +3972,12 @@
       <c r="D77" s="1">
         <v>1776</v>
       </c>
-      <c r="E77" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5">
+      <c r="E77" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>68</v>
       </c>
@@ -3977,12 +3987,12 @@
       <c r="D78" s="1">
         <v>730</v>
       </c>
-      <c r="E78" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5">
+      <c r="E78" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>72</v>
       </c>
@@ -3992,12 +4002,12 @@
       <c r="D79" s="1">
         <v>472</v>
       </c>
-      <c r="E79" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5">
+      <c r="E79" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>76</v>
       </c>
@@ -4007,12 +4017,12 @@
       <c r="D80" s="1">
         <v>135</v>
       </c>
-      <c r="E80" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5">
+      <c r="E80" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>73</v>
       </c>
@@ -4022,12 +4032,12 @@
       <c r="D81" s="1">
         <v>646</v>
       </c>
-      <c r="E81" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5">
+      <c r="E81" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>74</v>
       </c>
@@ -4037,12 +4047,12 @@
       <c r="D82" s="1">
         <v>411</v>
       </c>
-      <c r="E82" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5">
+      <c r="E82" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>75</v>
       </c>
@@ -4052,12 +4062,12 @@
       <c r="D83" s="1">
         <v>408</v>
       </c>
-      <c r="E83" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5">
+      <c r="E83" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>79</v>
       </c>
@@ -4067,12 +4077,12 @@
       <c r="D84" s="1">
         <v>520</v>
       </c>
-      <c r="E84" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5">
+      <c r="E84" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>236</v>
       </c>
@@ -4082,12 +4092,12 @@
       <c r="D85" s="1">
         <v>112</v>
       </c>
-      <c r="E85" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5">
+      <c r="E85" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>77</v>
       </c>
@@ -4097,12 +4107,12 @@
       <c r="D86" s="1">
         <v>309</v>
       </c>
-      <c r="E86" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5">
+      <c r="E86" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>78</v>
       </c>
@@ -4112,12 +4122,12 @@
       <c r="D87" s="1">
         <v>621</v>
       </c>
-      <c r="E87" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5">
+      <c r="E87" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>80</v>
       </c>
@@ -4127,12 +4137,12 @@
       <c r="D88" s="1">
         <v>532</v>
       </c>
-      <c r="E88" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5">
+      <c r="E88" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>81</v>
       </c>
@@ -4142,12 +4152,12 @@
       <c r="D89" s="1">
         <v>178</v>
       </c>
-      <c r="E89" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5">
+      <c r="E89" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>83</v>
       </c>
@@ -4157,12 +4167,12 @@
       <c r="D90" s="1">
         <v>557</v>
       </c>
-      <c r="E90" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5">
+      <c r="E90" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>84</v>
       </c>
@@ -4172,12 +4182,12 @@
       <c r="D91" s="1">
         <v>262</v>
       </c>
-      <c r="E91" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5">
+      <c r="E91" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>82</v>
       </c>
@@ -4187,12 +4197,12 @@
       <c r="D92" s="1">
         <v>812</v>
       </c>
-      <c r="E92" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5">
+      <c r="E92" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>85</v>
       </c>
@@ -4202,12 +4212,12 @@
       <c r="D93" s="1">
         <v>438</v>
       </c>
-      <c r="E93" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5">
+      <c r="E93" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>98</v>
       </c>
@@ -4217,12 +4227,12 @@
       <c r="D94" s="1">
         <v>170</v>
       </c>
-      <c r="E94" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5">
+      <c r="E94" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>100</v>
       </c>
@@ -4232,12 +4242,12 @@
       <c r="D95" s="1">
         <v>116</v>
       </c>
-      <c r="E95" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5">
+      <c r="E95" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>95</v>
       </c>
@@ -4247,12 +4257,12 @@
       <c r="D96" s="1">
         <v>277</v>
       </c>
-      <c r="E96" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5">
+      <c r="E96" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>86</v>
       </c>
@@ -4262,12 +4272,12 @@
       <c r="D97" s="1">
         <v>264</v>
       </c>
-      <c r="E97" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5">
+      <c r="E97" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>104</v>
       </c>
@@ -4277,12 +4287,12 @@
       <c r="D98" s="1">
         <v>180</v>
       </c>
-      <c r="E98" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5">
+      <c r="E98" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>87</v>
       </c>
@@ -4292,12 +4302,12 @@
       <c r="D99" s="1">
         <v>248</v>
       </c>
-      <c r="E99" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5">
+      <c r="E99" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>88</v>
       </c>
@@ -4307,12 +4317,12 @@
       <c r="D100" s="1">
         <v>125</v>
       </c>
-      <c r="E100" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5">
+      <c r="E100" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>91</v>
       </c>
@@ -4322,12 +4332,12 @@
       <c r="D101" s="1">
         <v>53</v>
       </c>
-      <c r="E101" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5">
+      <c r="E101" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>89</v>
       </c>
@@ -4337,12 +4347,12 @@
       <c r="D102" s="1">
         <v>55</v>
       </c>
-      <c r="E102" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5">
+      <c r="E102" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>90</v>
       </c>
@@ -4352,12 +4362,12 @@
       <c r="D103" s="1">
         <v>53</v>
       </c>
-      <c r="E103" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5">
+      <c r="E103" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>92</v>
       </c>
@@ -4367,12 +4377,12 @@
       <c r="D104" s="1">
         <v>66</v>
       </c>
-      <c r="E104" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5">
+      <c r="E104" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>103</v>
       </c>
@@ -4382,12 +4392,12 @@
       <c r="D105" s="1">
         <v>238</v>
       </c>
-      <c r="E105" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5">
+      <c r="E105" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>99</v>
       </c>
@@ -4397,12 +4407,12 @@
       <c r="D106" s="1">
         <v>240</v>
       </c>
-      <c r="E106" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5">
+      <c r="E106" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>93</v>
       </c>
@@ -4412,12 +4422,12 @@
       <c r="D107" s="1">
         <v>196</v>
       </c>
-      <c r="E107" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5">
+      <c r="E107" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>94</v>
       </c>
@@ -4427,12 +4437,12 @@
       <c r="D108" s="1">
         <v>334</v>
       </c>
-      <c r="E108" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5">
+      <c r="E108" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>96</v>
       </c>
@@ -4442,12 +4452,12 @@
       <c r="D109" s="1">
         <v>124</v>
       </c>
-      <c r="E109" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5">
+      <c r="E109" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>101</v>
       </c>
@@ -4457,12 +4467,12 @@
       <c r="D110" s="1">
         <v>169</v>
       </c>
-      <c r="E110" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5">
+      <c r="E110" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>97</v>
       </c>
@@ -4472,12 +4482,12 @@
       <c r="D111" s="1">
         <v>158</v>
       </c>
-      <c r="E111" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5">
+      <c r="E111" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>106</v>
       </c>
@@ -4487,12 +4497,12 @@
       <c r="D112" s="1">
         <v>25</v>
       </c>
-      <c r="E112" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5">
+      <c r="E112" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>110</v>
       </c>
@@ -4502,12 +4512,12 @@
       <c r="D113" s="1">
         <v>152</v>
       </c>
-      <c r="E113" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5">
+      <c r="E113" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>102</v>
       </c>
@@ -4517,12 +4527,12 @@
       <c r="D114" s="1">
         <v>60</v>
       </c>
-      <c r="E114" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5">
+      <c r="E114" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>109</v>
       </c>
@@ -4532,12 +4542,12 @@
       <c r="D115" s="1">
         <v>166</v>
       </c>
-      <c r="E115" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5">
+      <c r="E115" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>120</v>
       </c>
@@ -4547,12 +4557,12 @@
       <c r="D116" s="1">
         <v>43</v>
       </c>
-      <c r="E116" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5">
+      <c r="E116" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>108</v>
       </c>
@@ -4562,12 +4572,12 @@
       <c r="D117" s="1">
         <v>611</v>
       </c>
-      <c r="E117" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5">
+      <c r="E117" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>105</v>
       </c>
@@ -4577,12 +4587,12 @@
       <c r="D118" s="1">
         <v>83</v>
       </c>
-      <c r="E118" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5">
+      <c r="E118" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>107</v>
       </c>
@@ -4592,12 +4602,12 @@
       <c r="D119" s="1">
         <v>61</v>
       </c>
-      <c r="E119" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5">
+      <c r="E119" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>112</v>
       </c>
@@ -4607,12 +4617,12 @@
       <c r="D120" s="1">
         <v>82</v>
       </c>
-      <c r="E120" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5">
+      <c r="E120" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>117</v>
       </c>
@@ -4622,12 +4632,12 @@
       <c r="D121" s="1">
         <v>81</v>
       </c>
-      <c r="E121" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5">
+      <c r="E121" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>111</v>
       </c>
@@ -4637,12 +4647,12 @@
       <c r="D122" s="1">
         <v>77</v>
       </c>
-      <c r="E122" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5">
+      <c r="E122" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>119</v>
       </c>
@@ -4652,12 +4662,12 @@
       <c r="D123" s="1">
         <v>89</v>
       </c>
-      <c r="E123" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5">
+      <c r="E123" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>114</v>
       </c>
@@ -4667,12 +4677,12 @@
       <c r="D124" s="1">
         <v>133</v>
       </c>
-      <c r="E124" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5">
+      <c r="E124" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>121</v>
       </c>
@@ -4682,12 +4692,12 @@
       <c r="D125" s="1">
         <v>37</v>
       </c>
-      <c r="E125" s="23" t="str">
+      <c r="E125" s="4" t="str">
         <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="2:5">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>113</v>
       </c>
@@ -4697,12 +4707,12 @@
       <c r="D126" s="1">
         <v>58</v>
       </c>
-      <c r="E126" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5">
+      <c r="E126" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>130</v>
       </c>
@@ -4712,12 +4722,12 @@
       <c r="D127" s="1">
         <v>55</v>
       </c>
-      <c r="E127" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5">
+      <c r="E127" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>115</v>
       </c>
@@ -4727,12 +4737,12 @@
       <c r="D128" s="1">
         <v>93</v>
       </c>
-      <c r="E128" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5">
+      <c r="E128" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>116</v>
       </c>
@@ -4742,12 +4752,12 @@
       <c r="D129" s="1">
         <v>39</v>
       </c>
-      <c r="E129" s="23" t="str">
+      <c r="E129" s="4" t="str">
         <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="2:5">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>123</v>
       </c>
@@ -4757,12 +4767,12 @@
       <c r="D130" s="1">
         <v>33</v>
       </c>
-      <c r="E130" s="23" t="str">
+      <c r="E130" s="4" t="str">
         <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="2:5">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>126</v>
       </c>
@@ -4772,12 +4782,12 @@
       <c r="D131" s="1">
         <v>20</v>
       </c>
-      <c r="E131" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5">
+      <c r="E131" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>118</v>
       </c>
@@ -4787,12 +4797,12 @@
       <c r="D132" s="1">
         <v>11</v>
       </c>
-      <c r="E132" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5">
+      <c r="E132" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>129</v>
       </c>
@@ -4802,12 +4812,12 @@
       <c r="D133" s="1">
         <v>11</v>
       </c>
-      <c r="E133" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5">
+      <c r="E133" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>122</v>
       </c>
@@ -4817,12 +4827,12 @@
       <c r="D134" s="1">
         <v>125</v>
       </c>
-      <c r="E134" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5">
+      <c r="E134" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>136</v>
       </c>
@@ -4832,12 +4842,12 @@
       <c r="D135" s="1">
         <v>63</v>
       </c>
-      <c r="E135" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5">
+      <c r="E135" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>125</v>
       </c>
@@ -4847,12 +4857,12 @@
       <c r="D136" s="1">
         <v>127</v>
       </c>
-      <c r="E136" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5">
+      <c r="E136" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>127</v>
       </c>
@@ -4862,12 +4872,12 @@
       <c r="D137" s="1">
         <v>83</v>
       </c>
-      <c r="E137" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5">
+      <c r="E137" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>124</v>
       </c>
@@ -4877,12 +4887,12 @@
       <c r="D138" s="1">
         <v>47</v>
       </c>
-      <c r="E138" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5">
+      <c r="E138" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>148</v>
       </c>
@@ -4892,12 +4902,12 @@
       <c r="D139" s="1">
         <v>84</v>
       </c>
-      <c r="E139" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5">
+      <c r="E139" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>128</v>
       </c>
@@ -4907,12 +4917,12 @@
       <c r="D140" s="1">
         <v>63</v>
       </c>
-      <c r="E140" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5">
+      <c r="E140" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>131</v>
       </c>
@@ -4922,12 +4932,12 @@
       <c r="D141" s="1">
         <v>33</v>
       </c>
-      <c r="E141" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5">
+      <c r="E141" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>133</v>
       </c>
@@ -4937,12 +4947,12 @@
       <c r="D142" s="1">
         <v>39</v>
       </c>
-      <c r="E142" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5">
+      <c r="E142" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>149</v>
       </c>
@@ -4952,12 +4962,12 @@
       <c r="D143" s="1">
         <v>83</v>
       </c>
-      <c r="E143" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5">
+      <c r="E143" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>137</v>
       </c>
@@ -4967,12 +4977,12 @@
       <c r="D144" s="1">
         <v>94</v>
       </c>
-      <c r="E144" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5">
+      <c r="E144" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>132</v>
       </c>
@@ -4982,12 +4992,12 @@
       <c r="D145" s="1">
         <v>10</v>
       </c>
-      <c r="E145" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5">
+      <c r="E145" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>134</v>
       </c>
@@ -4997,12 +5007,12 @@
       <c r="D146" s="1">
         <v>69</v>
       </c>
-      <c r="E146" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5">
+      <c r="E146" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>135</v>
       </c>
@@ -5012,12 +5022,12 @@
       <c r="D147" s="1">
         <v>543</v>
       </c>
-      <c r="E147" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5">
+      <c r="E147" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>140</v>
       </c>
@@ -5027,12 +5037,12 @@
       <c r="D148" s="1">
         <v>19</v>
       </c>
-      <c r="E148" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5">
+      <c r="E148" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>158</v>
       </c>
@@ -5042,12 +5052,12 @@
       <c r="D149" s="1">
         <v>23</v>
       </c>
-      <c r="E149" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5">
+      <c r="E149" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>154</v>
       </c>
@@ -5057,12 +5067,12 @@
       <c r="D150" s="1">
         <v>10</v>
       </c>
-      <c r="E150" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5">
+      <c r="E150" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>141</v>
       </c>
@@ -5072,12 +5082,12 @@
       <c r="D151" s="1">
         <v>11</v>
       </c>
-      <c r="E151" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5">
+      <c r="E151" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>138</v>
       </c>
@@ -5087,12 +5097,12 @@
       <c r="D152" s="1">
         <v>41</v>
       </c>
-      <c r="E152" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5">
+      <c r="E152" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>145</v>
       </c>
@@ -5102,12 +5112,12 @@
       <c r="D153" s="1">
         <v>21</v>
       </c>
-      <c r="E153" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5">
+      <c r="E153" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>144</v>
       </c>
@@ -5117,12 +5127,12 @@
       <c r="D154" s="1">
         <v>17</v>
       </c>
-      <c r="E154" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="2:5">
+      <c r="E154" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>177</v>
       </c>
@@ -5132,12 +5142,12 @@
       <c r="D155" s="1">
         <v>6</v>
       </c>
-      <c r="E155" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="2:5">
+      <c r="E155" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>139</v>
       </c>
@@ -5147,12 +5157,12 @@
       <c r="D156" s="1">
         <v>33</v>
       </c>
-      <c r="E156" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5">
+      <c r="E156" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>143</v>
       </c>
@@ -5162,12 +5172,12 @@
       <c r="D157" s="1">
         <v>22</v>
       </c>
-      <c r="E157" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5">
+      <c r="E157" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>156</v>
       </c>
@@ -5177,12 +5187,12 @@
       <c r="D158" s="1">
         <v>3</v>
       </c>
-      <c r="E158" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="2:5">
+      <c r="E158" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>146</v>
       </c>
@@ -5192,12 +5202,12 @@
       <c r="D159" s="1">
         <v>55</v>
       </c>
-      <c r="E159" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="2:5">
+      <c r="E159" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>151</v>
       </c>
@@ -5207,12 +5217,12 @@
       <c r="D160" s="1">
         <v>15</v>
       </c>
-      <c r="E160" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="2:5">
+      <c r="E160" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>142</v>
       </c>
@@ -5222,12 +5232,12 @@
       <c r="D161" s="1">
         <v>82</v>
       </c>
-      <c r="E161" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5">
+      <c r="E161" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>150</v>
       </c>
@@ -5237,12 +5247,12 @@
       <c r="D162" s="1">
         <v>27</v>
       </c>
-      <c r="E162" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="2:5">
+      <c r="E162" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>147</v>
       </c>
@@ -5252,12 +5262,12 @@
       <c r="D163" s="1">
         <v>69</v>
       </c>
-      <c r="E163" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5">
+      <c r="E163" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>237</v>
       </c>
@@ -5267,12 +5277,12 @@
       <c r="D164" s="1">
         <v>5</v>
       </c>
-      <c r="E164" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5">
+      <c r="E164" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>152</v>
       </c>
@@ -5282,12 +5292,12 @@
       <c r="D165" s="1">
         <v>53</v>
       </c>
-      <c r="E165" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="2:5">
+      <c r="E165" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>159</v>
       </c>
@@ -5297,12 +5307,12 @@
       <c r="D166" s="1">
         <v>30</v>
       </c>
-      <c r="E166" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="2:5">
+      <c r="E166" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>157</v>
       </c>
@@ -5312,12 +5322,12 @@
       <c r="D167" s="1">
         <v>25</v>
       </c>
-      <c r="E167" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="2:5">
+      <c r="E167" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>153</v>
       </c>
@@ -5327,12 +5337,12 @@
       <c r="D168" s="1">
         <v>76</v>
       </c>
-      <c r="E168" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="169" spans="2:5">
+      <c r="E168" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>163</v>
       </c>
@@ -5342,12 +5352,12 @@
       <c r="D169" s="1">
         <v>10</v>
       </c>
-      <c r="E169" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="170" spans="2:5">
+      <c r="E169" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>155</v>
       </c>
@@ -5357,12 +5367,12 @@
       <c r="D170" s="1">
         <v>15</v>
       </c>
-      <c r="E170" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="171" spans="2:5">
+      <c r="E170" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>162</v>
       </c>
@@ -5372,12 +5382,12 @@
       <c r="D171" s="1">
         <v>29</v>
       </c>
-      <c r="E171" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="172" spans="2:5">
+      <c r="E171" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>180</v>
       </c>
@@ -5387,12 +5397,12 @@
       <c r="D172" s="1">
         <v>12</v>
       </c>
-      <c r="E172" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="173" spans="2:5">
+      <c r="E172" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>165</v>
       </c>
@@ -5402,12 +5412,12 @@
       <c r="D173" s="1">
         <v>7</v>
       </c>
-      <c r="E173" s="23" t="str">
+      <c r="E173" s="4" t="str">
         <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="2:5">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>160</v>
       </c>
@@ -5417,12 +5427,12 @@
       <c r="D174" s="1">
         <v>13</v>
       </c>
-      <c r="E174" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="175" spans="2:5">
+      <c r="E174" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>161</v>
       </c>
@@ -5432,12 +5442,12 @@
       <c r="D175" s="1">
         <v>42</v>
       </c>
-      <c r="E175" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="176" spans="2:5">
+      <c r="E175" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>190</v>
       </c>
@@ -5447,12 +5457,12 @@
       <c r="D176" s="1">
         <v>5</v>
       </c>
-      <c r="E176" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="177" spans="2:5">
+      <c r="E176" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>175</v>
       </c>
@@ -5462,12 +5472,12 @@
       <c r="D177" s="1">
         <v>15</v>
       </c>
-      <c r="E177" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="178" spans="2:5">
+      <c r="E177" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>164</v>
       </c>
@@ -5477,12 +5487,12 @@
       <c r="D178" s="1">
         <v>21</v>
       </c>
-      <c r="E178" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="179" spans="2:5">
+      <c r="E178" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>168</v>
       </c>
@@ -5492,12 +5502,12 @@
       <c r="D179" s="1">
         <v>6</v>
       </c>
-      <c r="E179" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="2:5">
+      <c r="E179" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>166</v>
       </c>
@@ -5507,12 +5517,12 @@
       <c r="D180" s="1">
         <v>1</v>
       </c>
-      <c r="E180" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="2:5">
+      <c r="E180" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>167</v>
       </c>
@@ -5522,12 +5532,12 @@
       <c r="D181" s="1">
         <v>7</v>
       </c>
-      <c r="E181" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="182" spans="2:5">
+      <c r="E181" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>173</v>
       </c>
@@ -5537,12 +5547,12 @@
       <c r="D182" s="1">
         <v>0</v>
       </c>
-      <c r="E182" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="183" spans="2:5">
+      <c r="E182" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>169</v>
       </c>
@@ -5552,12 +5562,12 @@
       <c r="D183" s="1">
         <v>32</v>
       </c>
-      <c r="E183" s="23" t="str">
+      <c r="E183" s="4" t="str">
         <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="2:5">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>183</v>
       </c>
@@ -5567,12 +5577,12 @@
       <c r="D184" s="1">
         <v>4</v>
       </c>
-      <c r="E184" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185" spans="2:5">
+      <c r="E184" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>184</v>
       </c>
@@ -5582,12 +5592,12 @@
       <c r="D185" s="1">
         <v>17</v>
       </c>
-      <c r="E185" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="186" spans="2:5">
+      <c r="E185" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>176</v>
       </c>
@@ -5597,12 +5607,12 @@
       <c r="D186" s="1">
         <v>16</v>
       </c>
-      <c r="E186" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="187" spans="2:5">
+      <c r="E186" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>170</v>
       </c>
@@ -5612,12 +5622,12 @@
       <c r="D187" s="1">
         <v>10</v>
       </c>
-      <c r="E187" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="2:5">
+      <c r="E187" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>171</v>
       </c>
@@ -5627,12 +5637,12 @@
       <c r="D188" s="1">
         <v>24</v>
       </c>
-      <c r="E188" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" spans="2:5">
+      <c r="E188" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>187</v>
       </c>
@@ -5642,12 +5652,12 @@
       <c r="D189" s="1">
         <v>2</v>
       </c>
-      <c r="E189" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="190" spans="2:5">
+      <c r="E189" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>174</v>
       </c>
@@ -5657,12 +5667,12 @@
       <c r="D190" s="1">
         <v>0</v>
       </c>
-      <c r="E190" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="191" spans="2:5">
+      <c r="E190" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>172</v>
       </c>
@@ -5672,12 +5682,12 @@
       <c r="D191" s="1">
         <v>0</v>
       </c>
-      <c r="E191" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="2:5">
+      <c r="E191" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>195</v>
       </c>
@@ -5687,12 +5697,12 @@
       <c r="D192" s="1">
         <v>0</v>
       </c>
-      <c r="E192" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="2:5">
+      <c r="E192" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>179</v>
       </c>
@@ -5702,12 +5712,12 @@
       <c r="D193" s="1">
         <v>0</v>
       </c>
-      <c r="E193" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="2:5">
+      <c r="E193" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>178</v>
       </c>
@@ -5717,12 +5727,12 @@
       <c r="D194" s="1">
         <v>13</v>
       </c>
-      <c r="E194" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="2:5">
+      <c r="E194" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>182</v>
       </c>
@@ -5732,12 +5742,12 @@
       <c r="D195" s="1">
         <v>0</v>
       </c>
-      <c r="E195" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" spans="2:5">
+      <c r="E195" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>181</v>
       </c>
@@ -5747,12 +5757,12 @@
       <c r="D196" s="1">
         <v>1</v>
       </c>
-      <c r="E196" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="2:5">
+      <c r="E196" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>185</v>
       </c>
@@ -5762,12 +5772,12 @@
       <c r="D197" s="1">
         <v>9</v>
       </c>
-      <c r="E197" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="2:5">
+      <c r="E197" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>188</v>
       </c>
@@ -5777,12 +5787,12 @@
       <c r="D198" s="1">
         <v>7</v>
       </c>
-      <c r="E198" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="2:5">
+      <c r="E198" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>191</v>
       </c>
@@ -5792,12 +5802,12 @@
       <c r="D199" s="1">
         <v>0</v>
       </c>
-      <c r="E199" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="2:5">
+      <c r="E199" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>186</v>
       </c>
@@ -5807,12 +5817,12 @@
       <c r="D200" s="1">
         <v>3</v>
       </c>
-      <c r="E200" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="2:5">
+      <c r="E200" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>189</v>
       </c>
@@ -5822,12 +5832,12 @@
       <c r="D201" s="1">
         <v>0</v>
       </c>
-      <c r="E201" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="2:5">
+      <c r="E201" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>197</v>
       </c>
@@ -5837,12 +5847,12 @@
       <c r="D202" s="1">
         <v>5</v>
       </c>
-      <c r="E202" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="2:5">
+      <c r="E202" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>192</v>
       </c>
@@ -5852,12 +5862,12 @@
       <c r="D203" s="1">
         <v>1</v>
       </c>
-      <c r="E203" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="2:5">
+      <c r="E203" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>194</v>
       </c>
@@ -5867,12 +5877,12 @@
       <c r="D204" s="1">
         <v>1</v>
       </c>
-      <c r="E204" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="2:5">
+      <c r="E204" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>193</v>
       </c>
@@ -5882,12 +5892,12 @@
       <c r="D205" s="1">
         <v>3</v>
       </c>
-      <c r="E205" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="206" spans="2:5">
+      <c r="E205" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>196</v>
       </c>
@@ -5897,12 +5907,12 @@
       <c r="D206" s="1">
         <v>0</v>
       </c>
-      <c r="E206" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="207" spans="2:5">
+      <c r="E206" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>198</v>
       </c>
@@ -5912,12 +5922,12 @@
       <c r="D207" s="1">
         <v>2</v>
       </c>
-      <c r="E207" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="208" spans="2:5">
+      <c r="E207" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>238</v>
       </c>
@@ -5927,12 +5937,12 @@
       <c r="D208" s="1">
         <v>1</v>
       </c>
-      <c r="E208" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="209" spans="2:5">
+      <c r="E208" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
         <v>199</v>
       </c>
@@ -5942,12 +5952,12 @@
       <c r="D209" s="1">
         <v>1</v>
       </c>
-      <c r="E209" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="210" spans="2:5">
+      <c r="E209" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
         <v>200</v>
       </c>
@@ -5957,12 +5967,12 @@
       <c r="D210" s="1">
         <v>0</v>
       </c>
-      <c r="E210" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="2:5">
+      <c r="E210" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
         <v>201</v>
       </c>
@@ -5972,12 +5982,12 @@
       <c r="D211" s="1">
         <v>0</v>
       </c>
-      <c r="E211" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" spans="2:5">
+      <c r="E211" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>202</v>
       </c>
@@ -5987,12 +5997,12 @@
       <c r="D212" s="1">
         <v>0</v>
       </c>
-      <c r="E212" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213" spans="2:5">
+      <c r="E212" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
         <v>203</v>
       </c>
@@ -6002,12 +6012,12 @@
       <c r="D213" s="1">
         <v>0</v>
       </c>
-      <c r="E213" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="2:5">
+      <c r="E213" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
         <v>204</v>
       </c>
@@ -6017,12 +6027,12 @@
       <c r="D214" s="1">
         <v>0</v>
       </c>
-      <c r="E214" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="2:5">
+      <c r="E214" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
         <v>205</v>
       </c>
@@ -6032,12 +6042,12 @@
       <c r="D215" s="1">
         <v>0</v>
       </c>
-      <c r="E215" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="2:5">
+      <c r="E215" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
         <v>206</v>
       </c>
@@ -6047,12 +6057,12 @@
       <c r="D216" s="1">
         <v>0</v>
       </c>
-      <c r="E216" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="2:5">
+      <c r="E216" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
         <v>239</v>
       </c>
@@ -6062,12 +6072,12 @@
       <c r="D217" s="1">
         <v>0</v>
       </c>
-      <c r="E217" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="2:5">
+      <c r="E217" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
         <v>207</v>
       </c>
@@ -6077,12 +6087,12 @@
       <c r="D218" s="1">
         <v>0</v>
       </c>
-      <c r="E218" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="2:5">
+      <c r="E218" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
         <v>209</v>
       </c>
@@ -6092,12 +6102,12 @@
       <c r="D219" s="1">
         <v>0</v>
       </c>
-      <c r="E219" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="2:5">
+      <c r="E219" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
         <v>208</v>
       </c>
@@ -6107,12 +6117,12 @@
       <c r="D220" s="1">
         <v>0</v>
       </c>
-      <c r="E220" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="2:5">
+      <c r="E220" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
         <v>210</v>
       </c>
@@ -6122,12 +6132,12 @@
       <c r="D221" s="1">
         <v>1</v>
       </c>
-      <c r="E221" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="2:5">
+      <c r="E221" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
         <v>212</v>
       </c>
@@ -6137,12 +6147,12 @@
       <c r="D222" s="1">
         <v>1</v>
       </c>
-      <c r="E222" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="2:5">
+      <c r="E222" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
         <v>211</v>
       </c>
@@ -6152,12 +6162,12 @@
       <c r="D223" s="1">
         <v>0</v>
       </c>
-      <c r="E223" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="2:5">
+      <c r="E223" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
         <v>213</v>
       </c>
@@ -6167,12 +6177,12 @@
       <c r="D224" s="1">
         <v>0</v>
       </c>
-      <c r="E224" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="225" spans="2:5">
+      <c r="E224" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
         <v>214</v>
       </c>
@@ -6182,15 +6192,15 @@
       <c r="D225" s="1">
         <v>0</v>
       </c>
-      <c r="E225" s="23" t="str">
-        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
-        <v>3</v>
+      <c r="E225" s="4" t="str">
+        <f>LEFT(INDEX(Data[[#This Row],[Cases]:[Deaths]],MATCH($C$5,Data[[#Headers],[Cases]:[Deaths]],0)),1)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C9:D9">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>$C$5</formula>
+  <conditionalFormatting sqref="B10:B225">
+    <cfRule type="expression" dxfId="3" priority="8">
+      <formula>$C$6=VALUE($E10)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C225">
@@ -6198,14 +6208,14 @@
       <formula>$C$5="Cases"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D225">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$C$5="Deaths"</formula>
+  <conditionalFormatting sqref="C9:D9">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>$C$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:B225">
-    <cfRule type="expression" dxfId="0" priority="8">
-      <formula>$C$6=VALUE($E10)</formula>
+  <conditionalFormatting sqref="D10:D225">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$C$5="Deaths"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
